--- a/reports/data/survey-2.xlsx
+++ b/reports/data/survey-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\R\01_paper\climate-crisis-behavior-sem\reports\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kojan\Documents\R\02_Publications\climate-crisis-behavior-sem\reports\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D3E77-819A-4B66-9A20-D9B62BF898C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="945" windowWidth="28800" windowHeight="15600" xr2:uid="{8062BF73-7EC2-404F-9232-83A8EDB871E6}"/>
+    <workbookView xWindow="348" yWindow="948" windowWidth="28800" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,9 +58,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>(Sorrell et al., 2020)</t>
-  </si>
-  <si>
     <t>(Intro Climate Crisis Behavior )</t>
   </si>
   <si>
@@ -93,12 +89,15 @@
   </si>
   <si>
     <t>In general, I took measures to protect the climate.</t>
+  </si>
+  <si>
+    <t>Based on Sorrel et al., 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,20 +522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F09214-BEC5-4AEF-9EB8-2CE720BD2581}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,76 +552,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
